--- a/Tokenomics.xlsx
+++ b/Tokenomics.xlsx
@@ -352,8 +352,8 @@
         <v>0.4</v>
       </c>
       <c r="C2" s="5">
-        <f t="shared" ref="C2:C6" si="1">(B2/100) * 1000000000</f>
-        <v>4000000</v>
+        <f t="shared" ref="C2:C6" si="1">(B2 * 1000000000)</f>
+        <v>400000000</v>
       </c>
     </row>
     <row r="3">
@@ -365,7 +365,7 @@
       </c>
       <c r="C3" s="5">
         <f t="shared" si="1"/>
-        <v>2500000</v>
+        <v>250000000</v>
       </c>
     </row>
     <row r="4">
@@ -377,7 +377,7 @@
       </c>
       <c r="C4" s="5">
         <f t="shared" si="1"/>
-        <v>1500000</v>
+        <v>150000000</v>
       </c>
     </row>
     <row r="5">
@@ -389,7 +389,7 @@
       </c>
       <c r="C5" s="5">
         <f t="shared" si="1"/>
-        <v>1000000</v>
+        <v>100000000</v>
       </c>
     </row>
     <row r="6">
@@ -401,7 +401,7 @@
       </c>
       <c r="C6" s="5">
         <f t="shared" si="1"/>
-        <v>1000000</v>
+        <v>100000000</v>
       </c>
     </row>
     <row r="8">
@@ -414,7 +414,7 @@
       </c>
       <c r="C8" s="5">
         <f t="shared" si="2"/>
-        <v>10000000</v>
+        <v>1000000000</v>
       </c>
     </row>
   </sheetData>
